--- a/Zeus/data/TSP/Results/att48.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/att48.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.512075099E9</v>
+        <v>-1.512080197E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -159,7 +159,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>32386.484375</v>
+        <v>32377.35546875</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -171,7 +171,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>32386.48</v>
+        <v>32377.36</v>
       </c>
     </row>
     <row r="3">
@@ -213,10 +213,10 @@
         <v>45.0</v>
       </c>
       <c r="F5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G5" t="n">
         <v>24.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10.0</v>
       </c>
       <c r="H5" t="n">
         <v>42.0</v>
@@ -234,64 +234,64 @@
         <v>48.0</v>
       </c>
       <c r="M5" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="N5" t="n">
         <v>39.0</v>
       </c>
-      <c r="N5" t="n">
-        <v>32.0</v>
-      </c>
       <c r="O5" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R5" t="n">
         <v>21.0</v>
       </c>
-      <c r="P5" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>14.0</v>
-      </c>
       <c r="S5" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="U5" t="n">
         <v>23.0</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>3.0</v>
       </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>34.0</v>
       </c>
-      <c r="V5" t="n">
+      <c r="X5" t="n">
         <v>41.0</v>
       </c>
-      <c r="W5" t="n">
+      <c r="Y5" t="n">
         <v>16.0</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>22.0</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AA5" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AB5" t="n">
         <v>8.0</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AC5" t="n">
         <v>9.0</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AD5" t="n">
         <v>40.0</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AE5" t="n">
         <v>15.0</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AF5" t="n">
         <v>12.0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>47.0</v>
       </c>
       <c r="AG5" t="n">
         <v>20.0</v>
@@ -324,25 +324,25 @@
         <v>28.0</v>
       </c>
       <c r="AQ5" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AR5" t="n">
         <v>6.0</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AS5" t="n">
         <v>37.0</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AT5" t="n">
         <v>19.0</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AU5" t="n">
         <v>27.0</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>17.0</v>
       </c>
       <c r="AV5" t="n">
         <v>43.0</v>
       </c>
       <c r="AW5" t="n">
-        <v>30.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="7">

--- a/Zeus/data/TSP/Results/att48.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/att48.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.512080197E9</v>
+        <v>-1.512080487E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -159,7 +159,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>32377.35546875</v>
+        <v>32358.716796875</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -171,7 +171,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>32377.36</v>
+        <v>32358.72</v>
       </c>
     </row>
     <row r="3">
@@ -234,115 +234,115 @@
         <v>48.0</v>
       </c>
       <c r="M5" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="N5" t="n">
         <v>32.0</v>
       </c>
-      <c r="N5" t="n">
-        <v>39.0</v>
-      </c>
       <c r="O5" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>25.0</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>14.0</v>
       </c>
-      <c r="Q5" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>21.0</v>
-      </c>
       <c r="S5" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Z5" t="n">
         <v>47.0</v>
       </c>
-      <c r="T5" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>22.0</v>
-      </c>
       <c r="AA5" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AV5" t="n">
         <v>1.0</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AW5" t="n">
         <v>8.0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>17.0</v>
       </c>
     </row>
     <row r="7">

--- a/Zeus/data/TSP/Results/att48.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/att48.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.512080487E9</v>
+        <v>-1.512081044E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -159,19 +159,19 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>32358.716796875</v>
+        <v>39306.31640625</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>22928.6845703125</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>32358.72</v>
+        <v>39306.32</v>
       </c>
     </row>
     <row r="3">
@@ -201,148 +201,148 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AW5" t="n">
         <v>4.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>8.0</v>
       </c>
     </row>
     <row r="7">

--- a/Zeus/data/TSP/Results/att48.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/att48.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.512081044E9</v>
+        <v>-1.512153318E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -159,19 +159,19 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>39306.31640625</v>
+        <v>32920.296875</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>22928.6845703125</v>
+        <v>0.0</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>39306.32</v>
+        <v>32920.3</v>
       </c>
     </row>
     <row r="3">
@@ -201,148 +201,148 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="I5" t="n">
         <v>2.0</v>
       </c>
-      <c r="C5" t="n">
+      <c r="J5" t="n">
         <v>29.0</v>
       </c>
-      <c r="D5" t="n">
+      <c r="K5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="V5" t="n">
         <v>41.0</v>
       </c>
-      <c r="E5" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="W5" t="n">
         <v>16.0</v>
       </c>
-      <c r="G5" t="n">
+      <c r="X5" t="n">
         <v>22.0</v>
       </c>
-      <c r="H5" t="n">
+      <c r="Y5" t="n">
         <v>1.0</v>
       </c>
-      <c r="I5" t="n">
+      <c r="Z5" t="n">
         <v>8.0</v>
       </c>
-      <c r="J5" t="n">
+      <c r="AA5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>38.0</v>
       </c>
-      <c r="K5" t="n">
+      <c r="AK5" t="n">
         <v>31.0</v>
       </c>
-      <c r="L5" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="AL5" t="n">
         <v>44.0</v>
       </c>
-      <c r="V5" t="n">
+      <c r="AM5" t="n">
         <v>18.0</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AN5" t="n">
         <v>7.0</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AO5" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="AP5" t="n">
         <v>28.0</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AQ5" t="n">
         <v>6.0</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AR5" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="AW5" t="n">
         <v>30.0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4.0</v>
       </c>
     </row>
     <row r="7">
